--- a/processo_20240507.xlsx
+++ b/processo_20240507.xlsx
@@ -61,18 +61,21 @@
     <t>N Peças</t>
   </si>
   <si>
-    <t>ffgfds</t>
+    <t>a</t>
   </si>
   <si>
     <t>2024-05-07</t>
   </si>
   <si>
-    <t>0:18</t>
+    <t>0:27</t>
   </si>
   <si>
     <t>400</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>1600</t>
-  </si>
-  <si>
-    <t>200</t>
   </si>
 </sst>
 </file>
@@ -481,19 +481,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -531,35 +531,35 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J2">
         <v>400</v>
       </c>
       <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
         <v>100</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>800</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1600</v>
-      </c>
-      <c r="N2">
-        <v>200</v>
       </c>
       <c r="O2">
         <v>0</v>

--- a/processo_20240507.xlsx
+++ b/processo_20240507.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nome</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Concluiu</t>
   </si>
   <si>
+    <t>Tentativas</t>
+  </si>
+  <si>
+    <t>N Peças</t>
+  </si>
+  <si>
     <t>Tempo</t>
   </si>
   <si>
@@ -53,49 +59,22 @@
   </si>
   <si>
     <t>R5</t>
-  </si>
-  <si>
-    <t>Tentativas</t>
-  </si>
-  <si>
-    <t>N Peças</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>2024-05-07</t>
-  </si>
-  <si>
-    <t>0:27</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>1600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -107,7 +86,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFA0A0A0"/>
       </patternFill>
     </fill>
   </fills>
@@ -125,7 +104,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,107 +444,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2">
-        <v>400</v>
-      </c>
-      <c r="K2">
-        <v>200</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>800</v>
-      </c>
-      <c r="N2">
-        <v>1600</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
